--- a/Code/Results/Cases/Case_0_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_209/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.183580133003753</v>
+        <v>4.918333463945449</v>
       </c>
       <c r="D2">
-        <v>7.890259151386979</v>
+        <v>9.871317234904735</v>
       </c>
       <c r="E2">
-        <v>11.23732097187188</v>
+        <v>13.94456563685932</v>
       </c>
       <c r="F2">
-        <v>21.54399843579021</v>
+        <v>29.37012180912973</v>
       </c>
       <c r="G2">
-        <v>23.39053548127309</v>
+        <v>28.74752955850481</v>
       </c>
       <c r="H2">
-        <v>8.525158042377029</v>
+        <v>14.20720873030578</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.3043224327137</v>
+        <v>9.778814238681491</v>
       </c>
       <c r="K2">
-        <v>19.78301389461895</v>
+        <v>13.88362409779512</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.23058785616752</v>
+        <v>16.77597527619096</v>
       </c>
       <c r="O2">
-        <v>14.28728131827525</v>
+        <v>21.64094833031352</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.688356980177031</v>
+        <v>4.74976546125179</v>
       </c>
       <c r="D3">
-        <v>7.546741275428438</v>
+        <v>9.819010985222608</v>
       </c>
       <c r="E3">
-        <v>10.75990643429208</v>
+        <v>13.8829927839413</v>
       </c>
       <c r="F3">
-        <v>20.93934392922241</v>
+        <v>29.38081368111657</v>
       </c>
       <c r="G3">
-        <v>22.56255914396509</v>
+        <v>28.73608409569469</v>
       </c>
       <c r="H3">
-        <v>8.51616321997845</v>
+        <v>14.25218378735418</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.186243852987531</v>
+        <v>9.784284122349508</v>
       </c>
       <c r="K3">
-        <v>18.52107071756649</v>
+        <v>13.38930414262038</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.24542493543168</v>
+        <v>16.79693341726779</v>
       </c>
       <c r="O3">
-        <v>14.09364323733412</v>
+        <v>21.69849498478166</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.367078428785825</v>
+        <v>4.644625336893507</v>
       </c>
       <c r="D4">
-        <v>7.330871719126368</v>
+        <v>9.788375328612611</v>
       </c>
       <c r="E4">
-        <v>10.46218560345289</v>
+        <v>13.84794121546453</v>
       </c>
       <c r="F4">
-        <v>20.58108813662986</v>
+        <v>29.3956068296843</v>
       </c>
       <c r="G4">
-        <v>22.07053664685727</v>
+        <v>28.73998121531753</v>
       </c>
       <c r="H4">
-        <v>8.517773401002902</v>
+        <v>14.28249324912956</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.116253343122386</v>
+        <v>9.789240339436391</v>
       </c>
       <c r="K4">
-        <v>17.70100074372956</v>
+        <v>13.07717360696458</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.25828354537122</v>
+        <v>16.81154983180017</v>
       </c>
       <c r="O4">
-        <v>13.98903773044926</v>
+        <v>21.73939087741977</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.231795337063921</v>
+        <v>4.601445123842196</v>
       </c>
       <c r="D5">
-        <v>7.241782618451054</v>
+        <v>9.776272994533617</v>
       </c>
       <c r="E5">
-        <v>10.33988591129029</v>
+        <v>13.83436115084144</v>
       </c>
       <c r="F5">
-        <v>20.43851021505057</v>
+        <v>29.40370173265752</v>
       </c>
       <c r="G5">
-        <v>21.87439887833855</v>
+        <v>28.7443112998841</v>
       </c>
       <c r="H5">
-        <v>8.520155826855586</v>
+        <v>14.29552119383865</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.088381922173645</v>
+        <v>9.791662118937493</v>
       </c>
       <c r="K5">
-        <v>17.35543415742751</v>
+        <v>12.94799334580957</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.26444529161637</v>
+        <v>16.81794655352222</v>
       </c>
       <c r="O5">
-        <v>13.94992842841573</v>
+        <v>21.75745030022167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.209067455288635</v>
+        <v>4.594257241839066</v>
       </c>
       <c r="D6">
-        <v>7.226925702829658</v>
+        <v>9.774286751267034</v>
       </c>
       <c r="E6">
-        <v>10.31952478546354</v>
+        <v>13.83214900219099</v>
       </c>
       <c r="F6">
-        <v>20.4150455212008</v>
+        <v>29.4051706025164</v>
       </c>
       <c r="G6">
-        <v>21.84210124479472</v>
+        <v>28.7451957106395</v>
       </c>
       <c r="H6">
-        <v>8.520653705994153</v>
+        <v>14.29772530935384</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.083793700601857</v>
+        <v>9.792088545565965</v>
       </c>
       <c r="K6">
-        <v>17.29736571780576</v>
+        <v>12.9264288777339</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.26552352152029</v>
+        <v>16.819035349034</v>
       </c>
       <c r="O6">
-        <v>13.94364442044981</v>
+        <v>21.76053310812478</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.365271647130073</v>
+        <v>4.644044242228647</v>
       </c>
       <c r="D7">
-        <v>7.329674593685237</v>
+        <v>9.788210553468478</v>
       </c>
       <c r="E7">
-        <v>10.4605399291278</v>
+        <v>13.84775520655808</v>
       </c>
       <c r="F7">
-        <v>20.57915127216305</v>
+        <v>29.39570763719441</v>
       </c>
       <c r="G7">
-        <v>22.06787346032585</v>
+        <v>28.7400285191</v>
       </c>
       <c r="H7">
-        <v>8.517798631168224</v>
+        <v>14.28266621038471</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.115874802177613</v>
+        <v>9.789271372044125</v>
       </c>
       <c r="K7">
-        <v>17.69638639558801</v>
+        <v>13.07543921820598</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.25836293965811</v>
+        <v>16.81163431588888</v>
       </c>
       <c r="O7">
-        <v>13.98849615142366</v>
+        <v>21.73962879513242</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.016379568250921</v>
+        <v>4.860595803317272</v>
       </c>
       <c r="D8">
-        <v>7.772910400199026</v>
+        <v>9.852980675890986</v>
       </c>
       <c r="E8">
-        <v>11.07376004664351</v>
+        <v>13.92277057757975</v>
       </c>
       <c r="F8">
-        <v>21.33290285046493</v>
+        <v>29.37209946871038</v>
       </c>
       <c r="G8">
-        <v>23.10180610146251</v>
+        <v>28.74131352105405</v>
       </c>
       <c r="H8">
-        <v>8.520535858082827</v>
+        <v>14.22215628357825</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.263099712545188</v>
+        <v>9.780368885320991</v>
       </c>
       <c r="K8">
-        <v>19.35727524027666</v>
+        <v>13.71507448195352</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.23491287636332</v>
+        <v>16.78283935677976</v>
       </c>
       <c r="O8">
-        <v>14.21750812314758</v>
+        <v>21.65963334715347</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.15812563440563</v>
+        <v>5.26916979962613</v>
       </c>
       <c r="D9">
-        <v>8.598218344583817</v>
+        <v>9.991297028731976</v>
       </c>
       <c r="E9">
-        <v>12.23321202565977</v>
+        <v>14.09120175203906</v>
       </c>
       <c r="F9">
-        <v>22.90769925639099</v>
+        <v>29.39114715638016</v>
       </c>
       <c r="G9">
-        <v>25.24819011980528</v>
+        <v>28.8306118476243</v>
       </c>
       <c r="H9">
-        <v>8.585467280174781</v>
+        <v>14.12492008446184</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.570852735215276</v>
+        <v>9.775569798112274</v>
       </c>
       <c r="K9">
-        <v>22.25635923078955</v>
+        <v>14.89394086934353</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.21964796017844</v>
+        <v>16.74020506714318</v>
       </c>
       <c r="O9">
-        <v>14.78268478639832</v>
+        <v>21.54708745055604</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.916719602930041</v>
+        <v>5.555865203161962</v>
       </c>
       <c r="D10">
-        <v>9.172733835012609</v>
+        <v>10.09918227045378</v>
       </c>
       <c r="E10">
-        <v>13.05139045063149</v>
+        <v>14.22718562818184</v>
       </c>
       <c r="F10">
-        <v>24.11519509112243</v>
+        <v>29.44496955406417</v>
       </c>
       <c r="G10">
-        <v>26.88388785659514</v>
+        <v>28.9490590387306</v>
       </c>
       <c r="H10">
-        <v>8.673452116464233</v>
+        <v>14.06659879043486</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.807406745994308</v>
+        <v>9.779730785154159</v>
       </c>
       <c r="K10">
-        <v>24.17020839244264</v>
+        <v>15.70576382677727</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.22856830917905</v>
+        <v>16.71726468405396</v>
       </c>
       <c r="O10">
-        <v>15.27156789521776</v>
+        <v>21.49166584878596</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.244870301130478</v>
+        <v>5.682709413931661</v>
       </c>
       <c r="D11">
-        <v>9.426390774374545</v>
+        <v>10.14948087416241</v>
       </c>
       <c r="E11">
-        <v>13.41513564871866</v>
+        <v>14.29152686505045</v>
       </c>
       <c r="F11">
-        <v>24.67386268338614</v>
+        <v>29.47807216704331</v>
       </c>
       <c r="G11">
-        <v>27.63830255347451</v>
+        <v>29.01434057786903</v>
       </c>
       <c r="H11">
-        <v>8.723043101246567</v>
+        <v>14.04292717110616</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.917056358358839</v>
+        <v>9.783283859823239</v>
       </c>
       <c r="K11">
-        <v>24.99455150909895</v>
+        <v>16.06186263797138</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.23732052588985</v>
+        <v>16.70863797121444</v>
       </c>
       <c r="O11">
-        <v>15.51037181403719</v>
+        <v>21.47241840695168</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.366736519311946</v>
+        <v>5.730181488997246</v>
       </c>
       <c r="D12">
-        <v>9.521288301380098</v>
+        <v>10.16869081508328</v>
       </c>
       <c r="E12">
-        <v>13.55159027236993</v>
+        <v>14.31623194872603</v>
       </c>
       <c r="F12">
-        <v>24.88664630039632</v>
+        <v>29.49184150698688</v>
       </c>
       <c r="G12">
-        <v>27.9252977662211</v>
+        <v>29.04068884668659</v>
       </c>
       <c r="H12">
-        <v>8.743262022249292</v>
+        <v>14.03437539689752</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.958853255616584</v>
+        <v>9.784867039928537</v>
       </c>
       <c r="K12">
-        <v>25.30011080357894</v>
+        <v>16.19470925681868</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.24133756573415</v>
+        <v>16.70563043816046</v>
       </c>
       <c r="O12">
-        <v>15.60318161313323</v>
+        <v>21.4659905316413</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.3405964452351</v>
+        <v>5.719983172509486</v>
       </c>
       <c r="D13">
-        <v>9.500902558741112</v>
+        <v>10.16454656713659</v>
       </c>
       <c r="E13">
-        <v>13.52226057878421</v>
+        <v>14.31089639215032</v>
       </c>
       <c r="F13">
-        <v>24.84076661404028</v>
+        <v>29.48882124550105</v>
       </c>
       <c r="G13">
-        <v>27.86343208487843</v>
+        <v>29.03494210668707</v>
       </c>
       <c r="H13">
-        <v>8.738842472972882</v>
+        <v>14.03619882788569</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.949839586791988</v>
+        <v>9.784515519509524</v>
       </c>
       <c r="K13">
-        <v>25.2345958444749</v>
+        <v>16.16618880375291</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.24044071549984</v>
+        <v>16.70626665030904</v>
       </c>
       <c r="O13">
-        <v>15.58308724221603</v>
+        <v>21.46733656471435</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.254944129804111</v>
+        <v>5.686626464646069</v>
       </c>
       <c r="D14">
-        <v>9.434221485925809</v>
+        <v>10.15105809504333</v>
       </c>
       <c r="E14">
-        <v>13.4263880177533</v>
+        <v>14.29355263985054</v>
       </c>
       <c r="F14">
-        <v>24.69134452017853</v>
+        <v>29.47918028100154</v>
       </c>
       <c r="G14">
-        <v>27.66188832681092</v>
+        <v>29.01647572439873</v>
       </c>
       <c r="H14">
-        <v>8.724677305038529</v>
+        <v>14.04221534556956</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.920489601300751</v>
+        <v>9.783409351372116</v>
       </c>
       <c r="K14">
-        <v>25.01982203760564</v>
+        <v>16.07283263366845</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.23763676300524</v>
+        <v>16.70838534990208</v>
       </c>
       <c r="O14">
-        <v>15.51795953579104</v>
+        <v>21.47187231570479</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.202168571345078</v>
+        <v>5.666120148225583</v>
       </c>
       <c r="D15">
-        <v>9.393225438039671</v>
+        <v>10.1428168581515</v>
       </c>
       <c r="E15">
-        <v>13.36749373124902</v>
+        <v>14.28297293173751</v>
       </c>
       <c r="F15">
-        <v>24.59997590814559</v>
+        <v>29.47343544729622</v>
       </c>
       <c r="G15">
-        <v>27.538603700838</v>
+        <v>29.00537609197508</v>
       </c>
       <c r="H15">
-        <v>8.716190122411463</v>
+        <v>14.04595434083096</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.902547186630331</v>
+        <v>9.78276271511254</v>
       </c>
       <c r="K15">
-        <v>24.88740883105904</v>
+        <v>16.01538599556867</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.23601162349969</v>
+        <v>16.70971684463417</v>
       </c>
       <c r="O15">
-        <v>15.47837739025175</v>
+        <v>21.4747627684468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.894936594589552</v>
+        <v>5.547499554277927</v>
       </c>
       <c r="D16">
-        <v>9.155997368047679</v>
+        <v>10.09591863511573</v>
       </c>
       <c r="E16">
-        <v>13.02744220877213</v>
+        <v>14.22302932421561</v>
       </c>
       <c r="F16">
-        <v>24.07886282542597</v>
+        <v>29.44297923365997</v>
       </c>
       <c r="G16">
-        <v>26.83477756725671</v>
+        <v>28.94502119441058</v>
       </c>
       <c r="H16">
-        <v>8.670409264023936</v>
+        <v>14.06820340639011</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.800280319040885</v>
+        <v>9.779531906359397</v>
       </c>
       <c r="K16">
-        <v>24.11540882477606</v>
+        <v>15.68221725578156</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.22809313849031</v>
+        <v>16.7178647837984</v>
       </c>
       <c r="O16">
-        <v>15.25629354978184</v>
+        <v>21.49304400083231</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.702148394802531</v>
+        <v>5.473778818236203</v>
       </c>
       <c r="D17">
-        <v>9.008455604437533</v>
+        <v>10.06745193233092</v>
       </c>
       <c r="E17">
-        <v>12.81661028805926</v>
+        <v>14.18687996810518</v>
       </c>
       <c r="F17">
-        <v>23.76148669459856</v>
+        <v>29.42649949187375</v>
       </c>
       <c r="G17">
-        <v>26.40551639401287</v>
+        <v>28.9109077440955</v>
       </c>
       <c r="H17">
-        <v>8.644820666929458</v>
+        <v>14.08258549957627</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.738051707646495</v>
+        <v>9.777974443109652</v>
       </c>
       <c r="K17">
-        <v>23.62999514378013</v>
+        <v>15.47437076180775</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.22445711896707</v>
+        <v>16.7233259615144</v>
       </c>
       <c r="O17">
-        <v>15.12427128098809</v>
+        <v>21.50578882664655</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.589665110199594</v>
+        <v>5.431042552639622</v>
       </c>
       <c r="D18">
-        <v>8.922871643277821</v>
+        <v>10.05119434476596</v>
       </c>
       <c r="E18">
-        <v>12.69455335336886</v>
+        <v>14.16632240479539</v>
       </c>
       <c r="F18">
-        <v>23.57982857098768</v>
+        <v>29.41783240504458</v>
       </c>
       <c r="G18">
-        <v>26.15959699103449</v>
+        <v>28.89236043936987</v>
       </c>
       <c r="H18">
-        <v>8.630999477595768</v>
+        <v>14.09112674565803</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.702452464453813</v>
+        <v>9.777234969616366</v>
       </c>
       <c r="K18">
-        <v>23.34643872425231</v>
+        <v>15.35358537246947</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.22280590296025</v>
+        <v>16.7266374125062</v>
       </c>
       <c r="O18">
-        <v>15.04987923261631</v>
+        <v>21.51368052730312</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.551304841219279</v>
+        <v>5.41651693738778</v>
       </c>
       <c r="D19">
-        <v>8.893772137040592</v>
+        <v>10.04571005845313</v>
       </c>
       <c r="E19">
-        <v>12.65309345914934</v>
+        <v>14.15940274747534</v>
       </c>
       <c r="F19">
-        <v>23.51847873139367</v>
+        <v>29.41503741099116</v>
       </c>
       <c r="G19">
-        <v>26.07650700885877</v>
+        <v>28.88626538020917</v>
       </c>
       <c r="H19">
-        <v>8.626471879025376</v>
+        <v>14.09406484176621</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.690432914074773</v>
+        <v>9.777011476957908</v>
       </c>
       <c r="K19">
-        <v>23.24968115875202</v>
+        <v>15.31248027208473</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.22232159433175</v>
+        <v>16.72778789404686</v>
       </c>
       <c r="O19">
-        <v>15.02495577514812</v>
+        <v>21.51644880976215</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.722835998440791</v>
+        <v>5.481661447123098</v>
       </c>
       <c r="D20">
-        <v>9.024236787433763</v>
+        <v>10.07047037692385</v>
       </c>
       <c r="E20">
-        <v>12.839136257992</v>
+        <v>14.19070396635703</v>
       </c>
       <c r="F20">
-        <v>23.79518091838776</v>
+        <v>29.42816982160101</v>
       </c>
       <c r="G20">
-        <v>26.45111186628181</v>
+        <v>28.91442811434776</v>
       </c>
       <c r="H20">
-        <v>8.647451340633602</v>
+        <v>14.08102664829717</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.744656213546811</v>
+        <v>9.778124064341348</v>
       </c>
       <c r="K20">
-        <v>23.68211906525145</v>
+        <v>15.49662523881787</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.22479843063005</v>
+        <v>16.72272698826003</v>
       </c>
       <c r="O20">
-        <v>15.13816534798939</v>
+        <v>21.50437401095041</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.280167041532778</v>
+        <v>5.696439713162225</v>
       </c>
       <c r="D21">
-        <v>9.453839077512617</v>
+        <v>10.15501566575498</v>
       </c>
       <c r="E21">
-        <v>13.45458355798694</v>
+        <v>14.2986378139387</v>
       </c>
       <c r="F21">
-        <v>24.73520093448286</v>
+        <v>29.48197862195311</v>
       </c>
       <c r="G21">
-        <v>27.72105211993739</v>
+        <v>29.02185568462038</v>
       </c>
       <c r="H21">
-        <v>8.728798377131042</v>
+        <v>14.0404369547474</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.929103077018264</v>
+        <v>9.7837278173354</v>
       </c>
       <c r="K21">
-        <v>25.08308502489612</v>
+        <v>16.10030863618897</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.23844105258186</v>
+        <v>16.70775600882291</v>
       </c>
       <c r="O21">
-        <v>15.53702439370085</v>
+        <v>21.47051667378126</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.630460487151295</v>
+        <v>5.833521332322486</v>
       </c>
       <c r="D22">
-        <v>9.727850267254544</v>
+        <v>10.21121467788706</v>
       </c>
       <c r="E22">
-        <v>13.84928598118656</v>
+        <v>14.37115525463883</v>
       </c>
       <c r="F22">
-        <v>25.35667624567078</v>
+        <v>29.52433558413477</v>
       </c>
       <c r="G22">
-        <v>28.55864068625236</v>
+        <v>29.10154499021586</v>
       </c>
       <c r="H22">
-        <v>8.790384642684122</v>
+        <v>14.01631204036677</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.051245560041066</v>
+        <v>9.788775162179476</v>
       </c>
       <c r="K22">
-        <v>25.96024689009898</v>
+        <v>16.483153286549</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.25146719858537</v>
+        <v>16.69948207670062</v>
       </c>
       <c r="O22">
-        <v>15.81158031869381</v>
+        <v>21.4534069622016</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.444766090257071</v>
+        <v>5.760673311438646</v>
       </c>
       <c r="D23">
-        <v>9.582237616889419</v>
+        <v>10.18113808828272</v>
       </c>
       <c r="E23">
-        <v>13.63933431786648</v>
+        <v>14.3322760464695</v>
       </c>
       <c r="F23">
-        <v>25.02436641442324</v>
+        <v>29.5010731208806</v>
       </c>
       <c r="G23">
-        <v>28.11095492907895</v>
+        <v>29.05815058880165</v>
       </c>
       <c r="H23">
-        <v>8.756723598857768</v>
+        <v>14.02896777651786</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.985915308713926</v>
+        <v>9.785954950338571</v>
       </c>
       <c r="K23">
-        <v>25.495588353531</v>
+        <v>16.2799224732079</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.24412939639432</v>
+        <v>16.70376012979949</v>
       </c>
       <c r="O23">
-        <v>15.66376923310401</v>
+        <v>21.46207868354761</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.713488265066403</v>
+        <v>5.478098807238517</v>
       </c>
       <c r="D24">
-        <v>9.017104478602883</v>
+        <v>10.06910539983439</v>
       </c>
       <c r="E24">
-        <v>12.82895489901884</v>
+        <v>14.18897443410212</v>
       </c>
       <c r="F24">
-        <v>23.77994524112195</v>
+        <v>29.42741215033235</v>
       </c>
       <c r="G24">
-        <v>26.43049543452253</v>
+        <v>28.91283323677049</v>
       </c>
       <c r="H24">
-        <v>8.646259245680081</v>
+        <v>14.08173055529735</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.741669764268019</v>
+        <v>9.77805593479197</v>
       </c>
       <c r="K24">
-        <v>23.65856781602758</v>
+        <v>15.48656800516409</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.22464275776545</v>
+        <v>16.72299724900945</v>
       </c>
       <c r="O24">
-        <v>15.1318791407123</v>
+        <v>21.50501189086146</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.863500545718247</v>
+        <v>5.160765861609627</v>
       </c>
       <c r="D25">
-        <v>8.380229301089237</v>
+        <v>9.952731771626739</v>
       </c>
       <c r="E25">
-        <v>11.92500568312634</v>
+        <v>14.04342918994351</v>
       </c>
       <c r="F25">
-        <v>22.47221773187155</v>
+        <v>29.37899389176707</v>
       </c>
       <c r="G25">
-        <v>24.65629365778231</v>
+        <v>28.79715856651402</v>
       </c>
       <c r="H25">
-        <v>8.561109807461998</v>
+        <v>14.14892541308796</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.48567937345621</v>
+        <v>9.775515479438091</v>
       </c>
       <c r="K25">
-        <v>21.51021362067001</v>
+        <v>14.58402414774255</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.22034682930937</v>
+        <v>16.75026295650373</v>
       </c>
       <c r="O25">
-        <v>14.61702170745268</v>
+        <v>21.57276214382952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_209/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.918333463945449</v>
+        <v>7.183580133003713</v>
       </c>
       <c r="D2">
-        <v>9.871317234904735</v>
+        <v>7.890259151386898</v>
       </c>
       <c r="E2">
-        <v>13.94456563685932</v>
+        <v>11.23732097187183</v>
       </c>
       <c r="F2">
-        <v>29.37012180912973</v>
+        <v>21.54399843579011</v>
       </c>
       <c r="G2">
-        <v>28.74752955850481</v>
+        <v>23.39053548127305</v>
       </c>
       <c r="H2">
-        <v>14.20720873030578</v>
+        <v>8.525158042377011</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.778814238681491</v>
+        <v>6.304322432713695</v>
       </c>
       <c r="K2">
-        <v>13.88362409779512</v>
+        <v>19.78301389461893</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.77597527619096</v>
+        <v>12.23058785616753</v>
       </c>
       <c r="O2">
-        <v>21.64094833031352</v>
+        <v>14.28728131827521</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.74976546125179</v>
+        <v>6.688356980177092</v>
       </c>
       <c r="D3">
-        <v>9.819010985222608</v>
+        <v>7.546741275428421</v>
       </c>
       <c r="E3">
-        <v>13.8829927839413</v>
+        <v>10.75990643429205</v>
       </c>
       <c r="F3">
-        <v>29.38081368111657</v>
+        <v>20.93934392922234</v>
       </c>
       <c r="G3">
-        <v>28.73608409569469</v>
+        <v>22.56255914396503</v>
       </c>
       <c r="H3">
-        <v>14.25218378735418</v>
+        <v>8.516163219978329</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.784284122349508</v>
+        <v>6.186243852987518</v>
       </c>
       <c r="K3">
-        <v>13.38930414262038</v>
+        <v>18.52107071756654</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.79693341726779</v>
+        <v>12.24542493543168</v>
       </c>
       <c r="O3">
-        <v>21.69849498478166</v>
+        <v>14.09364323733404</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.644625336893507</v>
+        <v>6.367078428785841</v>
       </c>
       <c r="D4">
-        <v>9.788375328612611</v>
+        <v>7.330871719126423</v>
       </c>
       <c r="E4">
-        <v>13.84794121546453</v>
+        <v>10.46218560345289</v>
       </c>
       <c r="F4">
-        <v>29.3956068296843</v>
+        <v>20.58108813662991</v>
       </c>
       <c r="G4">
-        <v>28.73998121531753</v>
+        <v>22.07053664685727</v>
       </c>
       <c r="H4">
-        <v>14.28249324912956</v>
+        <v>8.517773401002913</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.789240339436391</v>
+        <v>6.116253343122369</v>
       </c>
       <c r="K4">
-        <v>13.07717360696458</v>
+        <v>17.70100074372957</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.81154983180017</v>
+        <v>12.25828354537122</v>
       </c>
       <c r="O4">
-        <v>21.73939087741977</v>
+        <v>13.98903773044927</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.601445123842196</v>
+        <v>6.231795337063899</v>
       </c>
       <c r="D5">
-        <v>9.776272994533617</v>
+        <v>7.241782618450983</v>
       </c>
       <c r="E5">
-        <v>13.83436115084144</v>
+        <v>10.33988591129024</v>
       </c>
       <c r="F5">
-        <v>29.40370173265752</v>
+        <v>20.43851021505051</v>
       </c>
       <c r="G5">
-        <v>28.7443112998841</v>
+        <v>21.87439887833853</v>
       </c>
       <c r="H5">
-        <v>14.29552119383865</v>
+        <v>8.520155826855591</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.791662118937493</v>
+        <v>6.088381922173649</v>
       </c>
       <c r="K5">
-        <v>12.94799334580957</v>
+        <v>17.35543415742756</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.81794655352222</v>
+        <v>12.26444529161637</v>
       </c>
       <c r="O5">
-        <v>21.75745030022167</v>
+        <v>13.94992842841569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.594257241839066</v>
+        <v>6.209067455288611</v>
       </c>
       <c r="D6">
-        <v>9.774286751267034</v>
+        <v>7.226925702829567</v>
       </c>
       <c r="E6">
-        <v>13.83214900219099</v>
+        <v>10.31952478546354</v>
       </c>
       <c r="F6">
-        <v>29.4051706025164</v>
+        <v>20.41504552120074</v>
       </c>
       <c r="G6">
-        <v>28.7451957106395</v>
+        <v>21.84210124479464</v>
       </c>
       <c r="H6">
-        <v>14.29772530935384</v>
+        <v>8.520653705994143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.792088545565965</v>
+        <v>6.083793700601838</v>
       </c>
       <c r="K6">
-        <v>12.9264288777339</v>
+        <v>17.29736571780575</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.819035349034</v>
+        <v>12.26552352152026</v>
       </c>
       <c r="O6">
-        <v>21.76053310812478</v>
+        <v>13.94364442044976</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.644044242228647</v>
+        <v>6.365271647130095</v>
       </c>
       <c r="D7">
-        <v>9.788210553468478</v>
+        <v>7.329674593685352</v>
       </c>
       <c r="E7">
-        <v>13.84775520655808</v>
+        <v>10.46053992912786</v>
       </c>
       <c r="F7">
-        <v>29.39570763719441</v>
+        <v>20.57915127216302</v>
       </c>
       <c r="G7">
-        <v>28.7400285191</v>
+        <v>22.06787346032574</v>
       </c>
       <c r="H7">
-        <v>14.28266621038471</v>
+        <v>8.517798631168178</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.789271372044125</v>
+        <v>6.115874802177563</v>
       </c>
       <c r="K7">
-        <v>13.07543921820598</v>
+        <v>17.69638639558807</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.81163431588888</v>
+        <v>12.25836293965805</v>
       </c>
       <c r="O7">
-        <v>21.73962879513242</v>
+        <v>13.98849615142358</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860595803317272</v>
+        <v>7.016379568251063</v>
       </c>
       <c r="D8">
-        <v>9.852980675890986</v>
+        <v>7.772910400199019</v>
       </c>
       <c r="E8">
-        <v>13.92277057757975</v>
+        <v>11.07376004664349</v>
       </c>
       <c r="F8">
-        <v>29.37209946871038</v>
+        <v>21.33290285046475</v>
       </c>
       <c r="G8">
-        <v>28.74131352105405</v>
+        <v>23.10180610146226</v>
       </c>
       <c r="H8">
-        <v>14.22215628357825</v>
+        <v>8.520535858082683</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.780368885320991</v>
+        <v>6.263099712545149</v>
       </c>
       <c r="K8">
-        <v>13.71507448195352</v>
+        <v>19.35727524027675</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.78283935677976</v>
+        <v>12.23491287636325</v>
       </c>
       <c r="O8">
-        <v>21.65963334715347</v>
+        <v>14.2175081231474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.26916979962613</v>
+        <v>8.15812563440563</v>
       </c>
       <c r="D9">
-        <v>9.991297028731976</v>
+        <v>8.59821834458381</v>
       </c>
       <c r="E9">
-        <v>14.09120175203906</v>
+        <v>12.23321202565977</v>
       </c>
       <c r="F9">
-        <v>29.39114715638016</v>
+        <v>22.90769925639093</v>
       </c>
       <c r="G9">
-        <v>28.8306118476243</v>
+        <v>25.24819011980528</v>
       </c>
       <c r="H9">
-        <v>14.12492008446184</v>
+        <v>8.585467280174749</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.775569798112274</v>
+        <v>6.570852735215264</v>
       </c>
       <c r="K9">
-        <v>14.89394086934353</v>
+        <v>22.2563592307896</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.74020506714318</v>
+        <v>12.2196479601784</v>
       </c>
       <c r="O9">
-        <v>21.54708745055604</v>
+        <v>14.78268478639825</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.555865203161962</v>
+        <v>8.916719602930074</v>
       </c>
       <c r="D10">
-        <v>10.09918227045378</v>
+        <v>9.172733835012584</v>
       </c>
       <c r="E10">
-        <v>14.22718562818184</v>
+        <v>13.05139045063146</v>
       </c>
       <c r="F10">
-        <v>29.44496955406417</v>
+        <v>24.11519509112238</v>
       </c>
       <c r="G10">
-        <v>28.9490590387306</v>
+        <v>26.88388785659512</v>
       </c>
       <c r="H10">
-        <v>14.06659879043486</v>
+        <v>8.67345211646419</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.779730785154159</v>
+        <v>6.807406745994291</v>
       </c>
       <c r="K10">
-        <v>15.70576382677727</v>
+        <v>24.17020839244269</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.71726468405396</v>
+        <v>12.22856830917906</v>
       </c>
       <c r="O10">
-        <v>21.49166584878596</v>
+        <v>15.27156789521772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.682709413931661</v>
+        <v>9.244870301130458</v>
       </c>
       <c r="D11">
-        <v>10.14948087416241</v>
+        <v>9.426390774374541</v>
       </c>
       <c r="E11">
-        <v>14.29152686505045</v>
+        <v>13.41513564871866</v>
       </c>
       <c r="F11">
-        <v>29.47807216704331</v>
+        <v>24.6738626833861</v>
       </c>
       <c r="G11">
-        <v>29.01434057786903</v>
+        <v>27.63830255347452</v>
       </c>
       <c r="H11">
-        <v>14.04292717110616</v>
+        <v>8.723043101246532</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.783283859823239</v>
+        <v>6.917056358358822</v>
       </c>
       <c r="K11">
-        <v>16.06186263797138</v>
+        <v>24.994551509099</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.70863797121444</v>
+        <v>12.23732052588982</v>
       </c>
       <c r="O11">
-        <v>21.47241840695168</v>
+        <v>15.51037181403713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.730181488997246</v>
+        <v>9.366736519311877</v>
       </c>
       <c r="D12">
-        <v>10.16869081508328</v>
+        <v>9.521288301380082</v>
       </c>
       <c r="E12">
-        <v>14.31623194872603</v>
+        <v>13.55159027236992</v>
       </c>
       <c r="F12">
-        <v>29.49184150698688</v>
+        <v>24.88664630039631</v>
       </c>
       <c r="G12">
-        <v>29.04068884668659</v>
+        <v>27.92529776622109</v>
       </c>
       <c r="H12">
-        <v>14.03437539689752</v>
+        <v>8.743262022249292</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.784867039928537</v>
+        <v>6.958853255616584</v>
       </c>
       <c r="K12">
-        <v>16.19470925681868</v>
+        <v>25.30011080357894</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.70563043816046</v>
+        <v>12.24133756573415</v>
       </c>
       <c r="O12">
-        <v>21.4659905316413</v>
+        <v>15.60318161313322</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.719983172509486</v>
+        <v>9.340596445235086</v>
       </c>
       <c r="D13">
-        <v>10.16454656713659</v>
+        <v>9.500902558741094</v>
       </c>
       <c r="E13">
-        <v>14.31089639215032</v>
+        <v>13.52226057878423</v>
       </c>
       <c r="F13">
-        <v>29.48882124550105</v>
+        <v>24.84076661404024</v>
       </c>
       <c r="G13">
-        <v>29.03494210668707</v>
+        <v>27.86343208487843</v>
       </c>
       <c r="H13">
-        <v>14.03619882788569</v>
+        <v>8.738842472972806</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.784515519509524</v>
+        <v>6.949839586792011</v>
       </c>
       <c r="K13">
-        <v>16.16618880375291</v>
+        <v>25.23459584447496</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.70626665030904</v>
+        <v>12.24044071549982</v>
       </c>
       <c r="O13">
-        <v>21.46733656471435</v>
+        <v>15.58308724221596</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.686626464646069</v>
+        <v>9.254944129804104</v>
       </c>
       <c r="D14">
-        <v>10.15105809504333</v>
+        <v>9.434221485925793</v>
       </c>
       <c r="E14">
-        <v>14.29355263985054</v>
+        <v>13.42638801775331</v>
       </c>
       <c r="F14">
-        <v>29.47918028100154</v>
+        <v>24.6913445201785</v>
       </c>
       <c r="G14">
-        <v>29.01647572439873</v>
+        <v>27.66188832681089</v>
       </c>
       <c r="H14">
-        <v>14.04221534556956</v>
+        <v>8.724677305038515</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.783409351372116</v>
+        <v>6.920489601300786</v>
       </c>
       <c r="K14">
-        <v>16.07283263366845</v>
+        <v>25.01982203760564</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.70838534990208</v>
+        <v>12.23763676300523</v>
       </c>
       <c r="O14">
-        <v>21.47187231570479</v>
+        <v>15.51795953579101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.666120148225583</v>
+        <v>9.202168571345085</v>
       </c>
       <c r="D15">
-        <v>10.1428168581515</v>
+        <v>9.39322543803971</v>
       </c>
       <c r="E15">
-        <v>14.28297293173751</v>
+        <v>13.36749373124902</v>
       </c>
       <c r="F15">
-        <v>29.47343544729622</v>
+        <v>24.59997590814562</v>
       </c>
       <c r="G15">
-        <v>29.00537609197508</v>
+        <v>27.53860370083801</v>
       </c>
       <c r="H15">
-        <v>14.04595434083096</v>
+        <v>8.716190122411463</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.78276271511254</v>
+        <v>6.902547186630319</v>
       </c>
       <c r="K15">
-        <v>16.01538599556867</v>
+        <v>24.88740883105904</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.70971684463417</v>
+        <v>12.23601162349972</v>
       </c>
       <c r="O15">
-        <v>21.4747627684468</v>
+        <v>15.47837739025177</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.547499554277927</v>
+        <v>8.894936594589627</v>
       </c>
       <c r="D16">
-        <v>10.09591863511573</v>
+        <v>9.155997368047684</v>
       </c>
       <c r="E16">
-        <v>14.22302932421561</v>
+        <v>13.02744220877209</v>
       </c>
       <c r="F16">
-        <v>29.44297923365997</v>
+        <v>24.07886282542598</v>
       </c>
       <c r="G16">
-        <v>28.94502119441058</v>
+        <v>26.83477756725671</v>
       </c>
       <c r="H16">
-        <v>14.06820340639011</v>
+        <v>8.670409264023942</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.779531906359397</v>
+        <v>6.80028031904086</v>
       </c>
       <c r="K16">
-        <v>15.68221725578156</v>
+        <v>24.11540882477606</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.7178647837984</v>
+        <v>12.2280931384903</v>
       </c>
       <c r="O16">
-        <v>21.49304400083231</v>
+        <v>15.25629354978185</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.473778818236203</v>
+        <v>8.702148394802506</v>
       </c>
       <c r="D17">
-        <v>10.06745193233092</v>
+        <v>9.008455604437458</v>
       </c>
       <c r="E17">
-        <v>14.18687996810518</v>
+        <v>12.81661028805927</v>
       </c>
       <c r="F17">
-        <v>29.42649949187375</v>
+        <v>23.76148669459852</v>
       </c>
       <c r="G17">
-        <v>28.9109077440955</v>
+        <v>26.40551639401289</v>
       </c>
       <c r="H17">
-        <v>14.08258549957627</v>
+        <v>8.644820666929446</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.777974443109652</v>
+        <v>6.73805170764654</v>
       </c>
       <c r="K17">
-        <v>15.47437076180775</v>
+        <v>23.62999514378016</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.7233259615144</v>
+        <v>12.22445711896707</v>
       </c>
       <c r="O17">
-        <v>21.50578882664655</v>
+        <v>15.12427128098808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.431042552639622</v>
+        <v>8.589665110199499</v>
       </c>
       <c r="D18">
-        <v>10.05119434476596</v>
+        <v>8.922871643277826</v>
       </c>
       <c r="E18">
-        <v>14.16632240479539</v>
+        <v>12.69455335336887</v>
       </c>
       <c r="F18">
-        <v>29.41783240504458</v>
+        <v>23.57982857098767</v>
       </c>
       <c r="G18">
-        <v>28.89236043936987</v>
+        <v>26.15959699103446</v>
       </c>
       <c r="H18">
-        <v>14.09112674565803</v>
+        <v>8.630999477595774</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.777234969616366</v>
+        <v>6.702452464453838</v>
       </c>
       <c r="K18">
-        <v>15.35358537246947</v>
+        <v>23.34643872425231</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.7266374125062</v>
+        <v>12.22280590296023</v>
       </c>
       <c r="O18">
-        <v>21.51368052730312</v>
+        <v>15.04987923261628</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.41651693738778</v>
+        <v>8.551304841219187</v>
       </c>
       <c r="D19">
-        <v>10.04571005845313</v>
+        <v>8.89377213704055</v>
       </c>
       <c r="E19">
-        <v>14.15940274747534</v>
+        <v>12.65309345914932</v>
       </c>
       <c r="F19">
-        <v>29.41503741099116</v>
+        <v>23.51847873139366</v>
       </c>
       <c r="G19">
-        <v>28.88626538020917</v>
+        <v>26.07650700885879</v>
       </c>
       <c r="H19">
-        <v>14.09406484176621</v>
+        <v>8.626471879025438</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.777011476957908</v>
+        <v>6.690432914074733</v>
       </c>
       <c r="K19">
-        <v>15.31248027208473</v>
+        <v>23.249681158752</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.72778789404686</v>
+        <v>12.22232159433176</v>
       </c>
       <c r="O19">
-        <v>21.51644880976215</v>
+        <v>15.02495577514814</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.481661447123098</v>
+        <v>8.722835998440745</v>
       </c>
       <c r="D20">
-        <v>10.07047037692385</v>
+        <v>9.024236787433756</v>
       </c>
       <c r="E20">
-        <v>14.19070396635703</v>
+        <v>12.83913625799198</v>
       </c>
       <c r="F20">
-        <v>29.42816982160101</v>
+        <v>23.79518091838772</v>
       </c>
       <c r="G20">
-        <v>28.91442811434776</v>
+        <v>26.45111186628175</v>
       </c>
       <c r="H20">
-        <v>14.08102664829717</v>
+        <v>8.647451340633545</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.778124064341348</v>
+        <v>6.744656213546836</v>
       </c>
       <c r="K20">
-        <v>15.49662523881787</v>
+        <v>23.6821190652515</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.72272698826003</v>
+        <v>12.22479843063001</v>
       </c>
       <c r="O20">
-        <v>21.50437401095041</v>
+        <v>15.13816534798934</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.696439713162225</v>
+        <v>9.280167041532778</v>
       </c>
       <c r="D21">
-        <v>10.15501566575498</v>
+        <v>9.453839077512589</v>
       </c>
       <c r="E21">
-        <v>14.2986378139387</v>
+        <v>13.45458355798694</v>
       </c>
       <c r="F21">
-        <v>29.48197862195311</v>
+        <v>24.73520093448279</v>
       </c>
       <c r="G21">
-        <v>29.02185568462038</v>
+        <v>27.72105211993736</v>
       </c>
       <c r="H21">
-        <v>14.0404369547474</v>
+        <v>8.728798377130971</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.7837278173354</v>
+        <v>6.929103077018262</v>
       </c>
       <c r="K21">
-        <v>16.10030863618897</v>
+        <v>25.08308502489618</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.70775600882291</v>
+        <v>12.23844105258184</v>
       </c>
       <c r="O21">
-        <v>21.47051667378126</v>
+        <v>15.53702439370077</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.833521332322486</v>
+        <v>9.630460487151286</v>
       </c>
       <c r="D22">
-        <v>10.21121467788706</v>
+        <v>9.727850267254553</v>
       </c>
       <c r="E22">
-        <v>14.37115525463883</v>
+        <v>13.84928598118654</v>
       </c>
       <c r="F22">
-        <v>29.52433558413477</v>
+        <v>25.35667624567078</v>
       </c>
       <c r="G22">
-        <v>29.10154499021586</v>
+        <v>28.5586406862524</v>
       </c>
       <c r="H22">
-        <v>14.01631204036677</v>
+        <v>8.790384642684128</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.788775162179476</v>
+        <v>7.051245560041029</v>
       </c>
       <c r="K22">
-        <v>16.483153286549</v>
+        <v>25.96024689009903</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.69948207670062</v>
+        <v>12.25146719858542</v>
       </c>
       <c r="O22">
-        <v>21.4534069622016</v>
+        <v>15.8115803186938</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.760673311438646</v>
+        <v>9.44476609025725</v>
       </c>
       <c r="D23">
-        <v>10.18113808828272</v>
+        <v>9.582237616889381</v>
       </c>
       <c r="E23">
-        <v>14.3322760464695</v>
+        <v>13.63933431786648</v>
       </c>
       <c r="F23">
-        <v>29.5010731208806</v>
+        <v>25.02436641442323</v>
       </c>
       <c r="G23">
-        <v>29.05815058880165</v>
+        <v>28.11095492907895</v>
       </c>
       <c r="H23">
-        <v>14.02896777651786</v>
+        <v>8.756723598857754</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.785954950338571</v>
+        <v>6.985915308713932</v>
       </c>
       <c r="K23">
-        <v>16.2799224732079</v>
+        <v>25.49558835353104</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.70376012979949</v>
+        <v>12.24412939639432</v>
       </c>
       <c r="O23">
-        <v>21.46207868354761</v>
+        <v>15.663769233104</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.478098807238517</v>
+        <v>8.713488265066488</v>
       </c>
       <c r="D24">
-        <v>10.06910539983439</v>
+        <v>9.017104478602921</v>
       </c>
       <c r="E24">
-        <v>14.18897443410212</v>
+        <v>12.82895489901882</v>
       </c>
       <c r="F24">
-        <v>29.42741215033235</v>
+        <v>23.77994524112191</v>
       </c>
       <c r="G24">
-        <v>28.91283323677049</v>
+        <v>26.43049543452251</v>
       </c>
       <c r="H24">
-        <v>14.08173055529735</v>
+        <v>8.646259245680049</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.77805593479197</v>
+        <v>6.741669764267992</v>
       </c>
       <c r="K24">
-        <v>15.48656800516409</v>
+        <v>23.65856781602766</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.72299724900945</v>
+        <v>12.22464275776545</v>
       </c>
       <c r="O24">
-        <v>21.50501189086146</v>
+        <v>15.13187914071224</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.160765861609627</v>
+        <v>7.863500545718181</v>
       </c>
       <c r="D25">
-        <v>9.952731771626739</v>
+        <v>8.380229301089177</v>
       </c>
       <c r="E25">
-        <v>14.04342918994351</v>
+        <v>11.92500568312631</v>
       </c>
       <c r="F25">
-        <v>29.37899389176707</v>
+        <v>22.4722177318715</v>
       </c>
       <c r="G25">
-        <v>28.79715856651402</v>
+        <v>24.65629365778219</v>
       </c>
       <c r="H25">
-        <v>14.14892541308796</v>
+        <v>8.56110980746204</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.775515479438091</v>
+        <v>6.485679373456196</v>
       </c>
       <c r="K25">
-        <v>14.58402414774255</v>
+        <v>21.51021362067001</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.75026295650373</v>
+        <v>12.22034682930938</v>
       </c>
       <c r="O25">
-        <v>21.57276214382952</v>
+        <v>14.61702170745266</v>
       </c>
     </row>
   </sheetData>
